--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Sema4b-Dcbld2.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Sema4b-Dcbld2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.331360397302203</v>
+        <v>0.409007</v>
       </c>
       <c r="H2">
-        <v>0.331360397302203</v>
+        <v>1.227021</v>
       </c>
       <c r="I2">
-        <v>0.02023262499442656</v>
+        <v>0.023041516364971</v>
       </c>
       <c r="J2">
-        <v>0.02023262499442656</v>
+        <v>0.023041516364971</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.99710057500848</v>
+        <v>3.634961333333333</v>
       </c>
       <c r="N2">
-        <v>2.99710057500848</v>
+        <v>10.904884</v>
       </c>
       <c r="O2">
-        <v>0.05338722766310033</v>
+        <v>0.06179191477994574</v>
       </c>
       <c r="P2">
-        <v>0.05338722766310033</v>
+        <v>0.06179191477994575</v>
       </c>
       <c r="Q2">
-        <v>0.9931204372894711</v>
+        <v>1.486724630062667</v>
       </c>
       <c r="R2">
-        <v>0.9931204372894711</v>
+        <v>13.380521670564</v>
       </c>
       <c r="S2">
-        <v>0.001080163756799585</v>
+        <v>0.001423779415625013</v>
       </c>
       <c r="T2">
-        <v>0.001080163756799585</v>
+        <v>0.001423779415625013</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.331360397302203</v>
+        <v>0.409007</v>
       </c>
       <c r="H3">
-        <v>0.331360397302203</v>
+        <v>1.227021</v>
       </c>
       <c r="I3">
-        <v>0.02023262499442656</v>
+        <v>0.023041516364971</v>
       </c>
       <c r="J3">
-        <v>0.02023262499442656</v>
+        <v>0.023041516364971</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>37.1650777750313</v>
+        <v>37.49596466666667</v>
       </c>
       <c r="N3">
-        <v>37.1650777750313</v>
+        <v>112.487894</v>
       </c>
       <c r="O3">
-        <v>0.6620199818575698</v>
+        <v>0.6374063547877785</v>
       </c>
       <c r="P3">
-        <v>0.6620199818575698</v>
+        <v>0.6374063547877786</v>
       </c>
       <c r="Q3">
-        <v>12.31503493730165</v>
+        <v>15.33611202041933</v>
       </c>
       <c r="R3">
-        <v>12.31503493730165</v>
+        <v>138.025008183774</v>
       </c>
       <c r="S3">
-        <v>0.01339440203174128</v>
+        <v>0.01468680895497911</v>
       </c>
       <c r="T3">
-        <v>0.01339440203174128</v>
+        <v>0.01468680895497911</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.331360397302203</v>
+        <v>0.409007</v>
       </c>
       <c r="H4">
-        <v>0.331360397302203</v>
+        <v>1.227021</v>
       </c>
       <c r="I4">
-        <v>0.02023262499442656</v>
+        <v>0.023041516364971</v>
       </c>
       <c r="J4">
-        <v>0.02023262499442656</v>
+        <v>0.023041516364971</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>3.42841067762644</v>
+        <v>0.1977943333333333</v>
       </c>
       <c r="N4">
-        <v>3.42841067762644</v>
+        <v>0.593383</v>
       </c>
       <c r="O4">
-        <v>0.06107013654973154</v>
+        <v>0.003362371554605123</v>
       </c>
       <c r="P4">
-        <v>0.06107013654973154</v>
+        <v>0.003362371554605124</v>
       </c>
       <c r="Q4">
-        <v>1.136039524253412</v>
+        <v>0.08089926689366665</v>
       </c>
       <c r="R4">
-        <v>1.136039524253412</v>
+        <v>0.728093402043</v>
       </c>
       <c r="S4">
-        <v>0.001235609171169141</v>
+        <v>7.747413920054692E-05</v>
       </c>
       <c r="T4">
-        <v>0.001235609171169141</v>
+        <v>7.747413920054695E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.331360397302203</v>
+        <v>0.409007</v>
       </c>
       <c r="H5">
-        <v>0.331360397302203</v>
+        <v>1.227021</v>
       </c>
       <c r="I5">
-        <v>0.02023262499442656</v>
+        <v>0.023041516364971</v>
       </c>
       <c r="J5">
-        <v>0.02023262499442656</v>
+        <v>0.023041516364971</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>12.5483173400077</v>
+        <v>0.5123639999999999</v>
       </c>
       <c r="N5">
-        <v>12.5483173400077</v>
+        <v>1.537092</v>
       </c>
       <c r="O5">
-        <v>0.2235226539295983</v>
+        <v>0.00870984577854623</v>
       </c>
       <c r="P5">
-        <v>0.2235226539295983</v>
+        <v>0.008709845778546233</v>
       </c>
       <c r="Q5">
-        <v>4.158015419259074</v>
+        <v>0.209560462548</v>
       </c>
       <c r="R5">
-        <v>4.158015419259074</v>
+        <v>1.886044162932</v>
       </c>
       <c r="S5">
-        <v>0.004522450034716549</v>
+        <v>0.0002006880540427465</v>
       </c>
       <c r="T5">
-        <v>0.004522450034716549</v>
+        <v>0.0002006880540427466</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.97793800571967</v>
+        <v>0.409007</v>
       </c>
       <c r="H6">
-        <v>1.97793800571967</v>
+        <v>1.227021</v>
       </c>
       <c r="I6">
-        <v>0.1207714568722361</v>
+        <v>0.023041516364971</v>
       </c>
       <c r="J6">
-        <v>0.1207714568722361</v>
+        <v>0.023041516364971</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.99710057500848</v>
+        <v>3.737712</v>
       </c>
       <c r="N6">
-        <v>2.99710057500848</v>
+        <v>11.213136</v>
       </c>
       <c r="O6">
-        <v>0.05338722766310033</v>
+        <v>0.06353860748339382</v>
       </c>
       <c r="P6">
-        <v>0.05338722766310033</v>
+        <v>0.06353860748339384</v>
       </c>
       <c r="Q6">
-        <v>5.928079134273549</v>
+        <v>1.528750371984</v>
       </c>
       <c r="R6">
-        <v>5.928079134273549</v>
+        <v>13.758753347856</v>
       </c>
       <c r="S6">
-        <v>0.00644765326324237</v>
+        <v>0.001464025864136087</v>
       </c>
       <c r="T6">
-        <v>0.00644765326324237</v>
+        <v>0.001464025864136088</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.97793800571967</v>
+        <v>0.409007</v>
       </c>
       <c r="H7">
-        <v>1.97793800571967</v>
+        <v>1.227021</v>
       </c>
       <c r="I7">
-        <v>0.1207714568722361</v>
+        <v>0.023041516364971</v>
       </c>
       <c r="J7">
-        <v>0.1207714568722361</v>
+        <v>0.023041516364971</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>37.1650777750313</v>
+        <v>13.24704433333333</v>
       </c>
       <c r="N7">
-        <v>37.1650777750313</v>
+        <v>39.741133</v>
       </c>
       <c r="O7">
-        <v>0.6620199818575698</v>
+        <v>0.2251909056157304</v>
       </c>
       <c r="P7">
-        <v>0.6620199818575698</v>
+        <v>0.2251909056157305</v>
       </c>
       <c r="Q7">
-        <v>73.51021981676185</v>
+        <v>5.418133861643666</v>
       </c>
       <c r="R7">
-        <v>73.51021981676185</v>
+        <v>48.76320475479299</v>
       </c>
       <c r="S7">
-        <v>0.07995311768747</v>
+        <v>0.005188739936987491</v>
       </c>
       <c r="T7">
-        <v>0.07995311768747</v>
+        <v>0.005188739936987494</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.97793800571967</v>
+        <v>2.049556333333333</v>
       </c>
       <c r="H8">
-        <v>1.97793800571967</v>
+        <v>6.148669</v>
       </c>
       <c r="I8">
-        <v>0.1207714568722361</v>
+        <v>0.1154622923212316</v>
       </c>
       <c r="J8">
-        <v>0.1207714568722361</v>
+        <v>0.1154622923212316</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.42841067762644</v>
+        <v>3.634961333333333</v>
       </c>
       <c r="N8">
-        <v>3.42841067762644</v>
+        <v>10.904884</v>
       </c>
       <c r="O8">
-        <v>0.06107013654973154</v>
+        <v>0.06179191477994574</v>
       </c>
       <c r="P8">
-        <v>0.06107013654973154</v>
+        <v>0.06179191477994575</v>
       </c>
       <c r="Q8">
-        <v>6.781183778492463</v>
+        <v>7.450058022155111</v>
       </c>
       <c r="R8">
-        <v>6.781183778492463</v>
+        <v>67.050522199396</v>
       </c>
       <c r="S8">
-        <v>0.007375529362497471</v>
+        <v>0.007134636127410724</v>
       </c>
       <c r="T8">
-        <v>0.007375529362497471</v>
+        <v>0.007134636127410725</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,122 +968,122 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.97793800571967</v>
+        <v>2.049556333333333</v>
       </c>
       <c r="H9">
-        <v>1.97793800571967</v>
+        <v>6.148669</v>
       </c>
       <c r="I9">
-        <v>0.1207714568722361</v>
+        <v>0.1154622923212316</v>
       </c>
       <c r="J9">
-        <v>0.1207714568722361</v>
+        <v>0.1154622923212316</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>12.5483173400077</v>
+        <v>37.49596466666667</v>
       </c>
       <c r="N9">
-        <v>12.5483173400077</v>
+        <v>112.487894</v>
       </c>
       <c r="O9">
-        <v>0.2235226539295983</v>
+        <v>0.6374063547877785</v>
       </c>
       <c r="P9">
-        <v>0.2235226539295983</v>
+        <v>0.6374063547877786</v>
       </c>
       <c r="Q9">
-        <v>24.81979377463238</v>
+        <v>76.85009185700957</v>
       </c>
       <c r="R9">
-        <v>24.81979377463238</v>
+        <v>691.6508267130861</v>
       </c>
       <c r="S9">
-        <v>0.02699515655902623</v>
+        <v>0.07359639886391713</v>
       </c>
       <c r="T9">
-        <v>0.02699515655902623</v>
+        <v>0.07359639886391714</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.20585987065825</v>
+        <v>2.049556333333333</v>
       </c>
       <c r="H10">
-        <v>5.20585987065825</v>
+        <v>6.148669</v>
       </c>
       <c r="I10">
-        <v>0.317866019578985</v>
+        <v>0.1154622923212316</v>
       </c>
       <c r="J10">
-        <v>0.317866019578985</v>
+        <v>0.1154622923212316</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>2.99710057500848</v>
+        <v>0.1977943333333333</v>
       </c>
       <c r="N10">
-        <v>2.99710057500848</v>
+        <v>0.593383</v>
       </c>
       <c r="O10">
-        <v>0.05338722766310033</v>
+        <v>0.003362371554605123</v>
       </c>
       <c r="P10">
-        <v>0.05338722766310033</v>
+        <v>0.003362371554605124</v>
       </c>
       <c r="Q10">
-        <v>15.60248561176341</v>
+        <v>0.4053906285807777</v>
       </c>
       <c r="R10">
-        <v>15.60248561176341</v>
+        <v>3.648515657227</v>
       </c>
       <c r="S10">
-        <v>0.01696998555362678</v>
+        <v>0.0003882271273304106</v>
       </c>
       <c r="T10">
-        <v>0.01696998555362678</v>
+        <v>0.0003882271273304107</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.20585987065825</v>
+        <v>2.049556333333333</v>
       </c>
       <c r="H11">
-        <v>5.20585987065825</v>
+        <v>6.148669</v>
       </c>
       <c r="I11">
-        <v>0.317866019578985</v>
+        <v>0.1154622923212316</v>
       </c>
       <c r="J11">
-        <v>0.317866019578985</v>
+        <v>0.1154622923212316</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>37.1650777750313</v>
+        <v>0.5123639999999999</v>
       </c>
       <c r="N11">
-        <v>37.1650777750313</v>
+        <v>1.537092</v>
       </c>
       <c r="O11">
-        <v>0.6620199818575698</v>
+        <v>0.00870984577854623</v>
       </c>
       <c r="P11">
-        <v>0.6620199818575698</v>
+        <v>0.008709845778546233</v>
       </c>
       <c r="Q11">
-        <v>193.4761869789282</v>
+        <v>1.050118881172</v>
       </c>
       <c r="R11">
-        <v>193.4761869789282</v>
+        <v>9.451069930548</v>
       </c>
       <c r="S11">
-        <v>0.2104336565148176</v>
+        <v>0.001005658759355349</v>
       </c>
       <c r="T11">
-        <v>0.2104336565148176</v>
+        <v>0.00100565875935535</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1157,57 +1157,57 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.20585987065825</v>
+        <v>2.049556333333333</v>
       </c>
       <c r="H12">
-        <v>5.20585987065825</v>
+        <v>6.148669</v>
       </c>
       <c r="I12">
-        <v>0.317866019578985</v>
+        <v>0.1154622923212316</v>
       </c>
       <c r="J12">
-        <v>0.317866019578985</v>
+        <v>0.1154622923212316</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.42841067762644</v>
+        <v>3.737712</v>
       </c>
       <c r="N12">
-        <v>3.42841067762644</v>
+        <v>11.213136</v>
       </c>
       <c r="O12">
-        <v>0.06107013654973154</v>
+        <v>0.06353860748339382</v>
       </c>
       <c r="P12">
-        <v>0.06107013654973154</v>
+        <v>0.06353860748339384</v>
       </c>
       <c r="Q12">
-        <v>17.84782556679174</v>
+        <v>7.660651301775999</v>
       </c>
       <c r="R12">
-        <v>17.84782556679174</v>
+        <v>68.94586171598399</v>
       </c>
       <c r="S12">
-        <v>0.01941212122020826</v>
+        <v>0.007336313270931608</v>
       </c>
       <c r="T12">
-        <v>0.01941212122020826</v>
+        <v>0.00733631327093161</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,57 +1219,57 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.20585987065825</v>
+        <v>2.049556333333333</v>
       </c>
       <c r="H13">
-        <v>5.20585987065825</v>
+        <v>6.148669</v>
       </c>
       <c r="I13">
-        <v>0.317866019578985</v>
+        <v>0.1154622923212316</v>
       </c>
       <c r="J13">
-        <v>0.317866019578985</v>
+        <v>0.1154622923212316</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>12.5483173400077</v>
+        <v>13.24704433333333</v>
       </c>
       <c r="N13">
-        <v>12.5483173400077</v>
+        <v>39.741133</v>
       </c>
       <c r="O13">
-        <v>0.2235226539295983</v>
+        <v>0.2251909056157304</v>
       </c>
       <c r="P13">
-        <v>0.2235226539295983</v>
+        <v>0.2251909056157305</v>
       </c>
       <c r="Q13">
-        <v>65.32478168463115</v>
+        <v>27.15056361133078</v>
       </c>
       <c r="R13">
-        <v>65.32478168463115</v>
+        <v>244.355072501977</v>
       </c>
       <c r="S13">
-        <v>0.07105025629033239</v>
+        <v>0.02600105817228634</v>
       </c>
       <c r="T13">
-        <v>0.07105025629033239</v>
+        <v>0.02600105817228634</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1281,57 +1281,57 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.00946558792595</v>
+        <v>5.950489</v>
       </c>
       <c r="H14">
-        <v>4.00946558792595</v>
+        <v>17.851467</v>
       </c>
       <c r="I14">
-        <v>0.2448150543306475</v>
+        <v>0.3352223548083038</v>
       </c>
       <c r="J14">
-        <v>0.2448150543306475</v>
+        <v>0.3352223548083038</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.99710057500848</v>
+        <v>3.634961333333333</v>
       </c>
       <c r="N14">
-        <v>2.99710057500848</v>
+        <v>10.904884</v>
       </c>
       <c r="O14">
-        <v>0.05338722766310033</v>
+        <v>0.06179191477994574</v>
       </c>
       <c r="P14">
-        <v>0.05338722766310033</v>
+        <v>0.06179191477994575</v>
       </c>
       <c r="Q14">
-        <v>12.01677161904958</v>
+        <v>21.62979742942533</v>
       </c>
       <c r="R14">
-        <v>12.01677161904958</v>
+        <v>194.668176864828</v>
       </c>
       <c r="S14">
-        <v>0.01306999704090455</v>
+        <v>0.02071403118064744</v>
       </c>
       <c r="T14">
-        <v>0.01306999704090455</v>
+        <v>0.02071403118064745</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1343,57 +1343,57 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.00946558792595</v>
+        <v>5.950489</v>
       </c>
       <c r="H15">
-        <v>4.00946558792595</v>
+        <v>17.851467</v>
       </c>
       <c r="I15">
-        <v>0.2448150543306475</v>
+        <v>0.3352223548083038</v>
       </c>
       <c r="J15">
-        <v>0.2448150543306475</v>
+        <v>0.3352223548083038</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>37.1650777750313</v>
+        <v>37.49596466666667</v>
       </c>
       <c r="N15">
-        <v>37.1650777750313</v>
+        <v>112.487894</v>
       </c>
       <c r="O15">
-        <v>0.6620199818575698</v>
+        <v>0.6374063547877785</v>
       </c>
       <c r="P15">
-        <v>0.6620199818575698</v>
+        <v>0.6374063547877786</v>
       </c>
       <c r="Q15">
-        <v>149.0121004115795</v>
+        <v>223.1193252933887</v>
       </c>
       <c r="R15">
-        <v>149.0121004115795</v>
+        <v>2008.073927640498</v>
       </c>
       <c r="S15">
-        <v>0.1620724578264352</v>
+        <v>0.2136728592217363</v>
       </c>
       <c r="T15">
-        <v>0.1620724578264352</v>
+        <v>0.2136728592217363</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,184 +1402,184 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.00946558792595</v>
+        <v>5.950489</v>
       </c>
       <c r="H16">
-        <v>4.00946558792595</v>
+        <v>17.851467</v>
       </c>
       <c r="I16">
-        <v>0.2448150543306475</v>
+        <v>0.3352223548083038</v>
       </c>
       <c r="J16">
-        <v>0.2448150543306475</v>
+        <v>0.3352223548083038</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>3.42841067762644</v>
+        <v>0.1977943333333333</v>
       </c>
       <c r="N16">
-        <v>3.42841067762644</v>
+        <v>0.593383</v>
       </c>
       <c r="O16">
-        <v>0.06107013654973154</v>
+        <v>0.003362371554605123</v>
       </c>
       <c r="P16">
-        <v>0.06107013654973154</v>
+        <v>0.003362371554605124</v>
       </c>
       <c r="Q16">
-        <v>13.7460946332211</v>
+        <v>1.176973004762333</v>
       </c>
       <c r="R16">
-        <v>13.7460946332211</v>
+        <v>10.592757042861</v>
       </c>
       <c r="S16">
-        <v>0.01495088879740259</v>
+        <v>0.001127142110275187</v>
       </c>
       <c r="T16">
-        <v>0.01495088879740259</v>
+        <v>0.001127142110275187</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>25</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.00946558792595</v>
+        <v>5.950489</v>
       </c>
       <c r="H17">
-        <v>4.00946558792595</v>
+        <v>17.851467</v>
       </c>
       <c r="I17">
-        <v>0.2448150543306475</v>
+        <v>0.3352223548083038</v>
       </c>
       <c r="J17">
-        <v>0.2448150543306475</v>
+        <v>0.3352223548083038</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>12.5483173400077</v>
+        <v>0.5123639999999999</v>
       </c>
       <c r="N17">
-        <v>12.5483173400077</v>
+        <v>1.537092</v>
       </c>
       <c r="O17">
-        <v>0.2235226539295983</v>
+        <v>0.00870984577854623</v>
       </c>
       <c r="P17">
-        <v>0.2235226539295983</v>
+        <v>0.008709845778546233</v>
       </c>
       <c r="Q17">
-        <v>50.31204656113537</v>
+        <v>3.048816345996</v>
       </c>
       <c r="R17">
-        <v>50.31204656113537</v>
+        <v>27.439347113964</v>
       </c>
       <c r="S17">
-        <v>0.05472171066590512</v>
+        <v>0.002919735011901431</v>
       </c>
       <c r="T17">
-        <v>0.05472171066590512</v>
+        <v>0.002919735011901433</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.4388293526584</v>
+        <v>5.950489</v>
       </c>
       <c r="H18">
-        <v>2.4388293526584</v>
+        <v>17.851467</v>
       </c>
       <c r="I18">
-        <v>0.1489131474958231</v>
+        <v>0.3352223548083038</v>
       </c>
       <c r="J18">
-        <v>0.1489131474958231</v>
+        <v>0.3352223548083038</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.99710057500848</v>
+        <v>3.737712</v>
       </c>
       <c r="N18">
-        <v>2.99710057500848</v>
+        <v>11.213136</v>
       </c>
       <c r="O18">
-        <v>0.05338722766310033</v>
+        <v>0.06353860748339382</v>
       </c>
       <c r="P18">
-        <v>0.05338722766310033</v>
+        <v>0.06353860748339384</v>
       </c>
       <c r="Q18">
-        <v>7.30941685520005</v>
+        <v>22.241214141168</v>
       </c>
       <c r="R18">
-        <v>7.30941685520005</v>
+        <v>200.170927270512</v>
       </c>
       <c r="S18">
-        <v>0.007950060107388345</v>
+        <v>0.02129956162182379</v>
       </c>
       <c r="T18">
-        <v>0.007950060107388345</v>
+        <v>0.0212995616218238</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,60 +1588,60 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.4388293526584</v>
+        <v>5.950489</v>
       </c>
       <c r="H19">
-        <v>2.4388293526584</v>
+        <v>17.851467</v>
       </c>
       <c r="I19">
-        <v>0.1489131474958231</v>
+        <v>0.3352223548083038</v>
       </c>
       <c r="J19">
-        <v>0.1489131474958231</v>
+        <v>0.3352223548083038</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>37.1650777750313</v>
+        <v>13.24704433333333</v>
       </c>
       <c r="N19">
-        <v>37.1650777750313</v>
+        <v>39.741133</v>
       </c>
       <c r="O19">
-        <v>0.6620199818575698</v>
+        <v>0.2251909056157304</v>
       </c>
       <c r="P19">
-        <v>0.6620199818575698</v>
+        <v>0.2251909056157305</v>
       </c>
       <c r="Q19">
-        <v>90.63928257157868</v>
+        <v>78.82639158801233</v>
       </c>
       <c r="R19">
-        <v>90.63928257157868</v>
+        <v>709.437524292111</v>
       </c>
       <c r="S19">
-        <v>0.09858347920353841</v>
+        <v>0.07548902566191965</v>
       </c>
       <c r="T19">
-        <v>0.09858347920353841</v>
+        <v>0.07548902566191966</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1650,60 +1650,60 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.4388293526584</v>
+        <v>4.322211333333334</v>
       </c>
       <c r="H20">
-        <v>2.4388293526584</v>
+        <v>12.966634</v>
       </c>
       <c r="I20">
-        <v>0.1489131474958231</v>
+        <v>0.2434929064046902</v>
       </c>
       <c r="J20">
-        <v>0.1489131474958231</v>
+        <v>0.2434929064046902</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.42841067762644</v>
+        <v>3.634961333333333</v>
       </c>
       <c r="N20">
-        <v>3.42841067762644</v>
+        <v>10.904884</v>
       </c>
       <c r="O20">
-        <v>0.06107013654973154</v>
+        <v>0.06179191477994574</v>
       </c>
       <c r="P20">
-        <v>0.06107013654973154</v>
+        <v>0.06179191477994575</v>
       </c>
       <c r="Q20">
-        <v>8.361308593562837</v>
+        <v>15.71107107116178</v>
       </c>
       <c r="R20">
-        <v>8.361308593562837</v>
+        <v>141.399639640456</v>
       </c>
       <c r="S20">
-        <v>0.009094146251620229</v>
+        <v>0.01504589292207992</v>
       </c>
       <c r="T20">
-        <v>0.009094146251620229</v>
+        <v>0.01504589292207993</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.4388293526584</v>
+        <v>4.322211333333334</v>
       </c>
       <c r="H21">
-        <v>2.4388293526584</v>
+        <v>12.966634</v>
       </c>
       <c r="I21">
-        <v>0.1489131474958231</v>
+        <v>0.2434929064046902</v>
       </c>
       <c r="J21">
-        <v>0.1489131474958231</v>
+        <v>0.2434929064046902</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>12.5483173400077</v>
+        <v>37.49596466666667</v>
       </c>
       <c r="N21">
-        <v>12.5483173400077</v>
+        <v>112.487894</v>
       </c>
       <c r="O21">
-        <v>0.2235226539295983</v>
+        <v>0.6374063547877785</v>
       </c>
       <c r="P21">
-        <v>0.2235226539295983</v>
+        <v>0.6374063547877786</v>
       </c>
       <c r="Q21">
-        <v>30.60320465528315</v>
+        <v>162.0654834365329</v>
       </c>
       <c r="R21">
-        <v>30.60320465528315</v>
+        <v>1458.589350928796</v>
       </c>
       <c r="S21">
-        <v>0.03328546193327609</v>
+        <v>0.1552039258880953</v>
       </c>
       <c r="T21">
-        <v>0.03328546193327609</v>
+        <v>0.1552039258880954</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.41407552426956</v>
+        <v>4.322211333333334</v>
       </c>
       <c r="H22">
-        <v>2.41407552426956</v>
+        <v>12.966634</v>
       </c>
       <c r="I22">
-        <v>0.1474016967278817</v>
+        <v>0.2434929064046902</v>
       </c>
       <c r="J22">
-        <v>0.1474016967278817</v>
+        <v>0.2434929064046902</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>2.99710057500848</v>
+        <v>0.1977943333333333</v>
       </c>
       <c r="N22">
-        <v>2.99710057500848</v>
+        <v>0.593383</v>
       </c>
       <c r="O22">
-        <v>0.05338722766310033</v>
+        <v>0.003362371554605123</v>
       </c>
       <c r="P22">
-        <v>0.05338722766310033</v>
+        <v>0.003362371554605124</v>
       </c>
       <c r="Q22">
-        <v>7.235227141902197</v>
+        <v>0.8549089092024444</v>
       </c>
       <c r="R22">
-        <v>7.235227141902197</v>
+        <v>7.694180182822</v>
       </c>
       <c r="S22">
-        <v>0.00786936794113869</v>
+        <v>0.000818713622243258</v>
       </c>
       <c r="T22">
-        <v>0.00786936794113869</v>
+        <v>0.0008187136222432583</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,60 +1836,60 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.41407552426956</v>
+        <v>4.322211333333334</v>
       </c>
       <c r="H23">
-        <v>2.41407552426956</v>
+        <v>12.966634</v>
       </c>
       <c r="I23">
-        <v>0.1474016967278817</v>
+        <v>0.2434929064046902</v>
       </c>
       <c r="J23">
-        <v>0.1474016967278817</v>
+        <v>0.2434929064046902</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M23">
-        <v>37.1650777750313</v>
+        <v>0.5123639999999999</v>
       </c>
       <c r="N23">
-        <v>37.1650777750313</v>
+        <v>1.537092</v>
       </c>
       <c r="O23">
-        <v>0.6620199818575698</v>
+        <v>0.00870984577854623</v>
       </c>
       <c r="P23">
-        <v>0.6620199818575698</v>
+        <v>0.008709845778546233</v>
       </c>
       <c r="Q23">
-        <v>89.71930461427766</v>
+        <v>2.214545487592</v>
       </c>
       <c r="R23">
-        <v>89.71930461427766</v>
+        <v>19.930909388328</v>
       </c>
       <c r="S23">
-        <v>0.09758286859356724</v>
+        <v>0.002120785662954843</v>
       </c>
       <c r="T23">
-        <v>0.09758286859356724</v>
+        <v>0.002120785662954844</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1901,57 +1901,57 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.41407552426956</v>
+        <v>4.322211333333334</v>
       </c>
       <c r="H24">
-        <v>2.41407552426956</v>
+        <v>12.966634</v>
       </c>
       <c r="I24">
-        <v>0.1474016967278817</v>
+        <v>0.2434929064046902</v>
       </c>
       <c r="J24">
-        <v>0.1474016967278817</v>
+        <v>0.2434929064046902</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>3.42841067762644</v>
+        <v>3.737712</v>
       </c>
       <c r="N24">
-        <v>3.42841067762644</v>
+        <v>11.213136</v>
       </c>
       <c r="O24">
-        <v>0.06107013654973154</v>
+        <v>0.06353860748339382</v>
       </c>
       <c r="P24">
-        <v>0.06107013654973154</v>
+        <v>0.06353860748339384</v>
       </c>
       <c r="Q24">
-        <v>8.276442304002405</v>
+        <v>16.155181167136</v>
       </c>
       <c r="R24">
-        <v>8.276442304002405</v>
+        <v>145.396630504224</v>
       </c>
       <c r="S24">
-        <v>0.00900184174683385</v>
+        <v>0.01547120020503836</v>
       </c>
       <c r="T24">
-        <v>0.00900184174683385</v>
+        <v>0.01547120020503837</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1963,52 +1963,796 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.41407552426956</v>
+        <v>4.322211333333334</v>
       </c>
       <c r="H25">
-        <v>2.41407552426956</v>
+        <v>12.966634</v>
       </c>
       <c r="I25">
-        <v>0.1474016967278817</v>
+        <v>0.2434929064046902</v>
       </c>
       <c r="J25">
-        <v>0.1474016967278817</v>
+        <v>0.2434929064046902</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>12.5483173400077</v>
+        <v>13.24704433333333</v>
       </c>
       <c r="N25">
-        <v>12.5483173400077</v>
+        <v>39.741133</v>
       </c>
       <c r="O25">
-        <v>0.2235226539295983</v>
+        <v>0.2251909056157304</v>
       </c>
       <c r="P25">
-        <v>0.2235226539295983</v>
+        <v>0.2251909056157305</v>
       </c>
       <c r="Q25">
-        <v>30.2925857612799</v>
+        <v>57.25652515070245</v>
       </c>
       <c r="R25">
-        <v>30.2925857612799</v>
+        <v>515.308726356322</v>
       </c>
       <c r="S25">
-        <v>0.0329476184463419</v>
+        <v>0.05483238810427848</v>
       </c>
       <c r="T25">
-        <v>0.0329476184463419</v>
+        <v>0.0548323881042785</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>2.535724333333333</v>
+      </c>
+      <c r="H26">
+        <v>7.607173</v>
+      </c>
+      <c r="I26">
+        <v>0.1428506938109988</v>
+      </c>
+      <c r="J26">
+        <v>0.1428506938109988</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>3.634961333333333</v>
+      </c>
+      <c r="N26">
+        <v>10.904884</v>
+      </c>
+      <c r="O26">
+        <v>0.06179191477994574</v>
+      </c>
+      <c r="P26">
+        <v>0.06179191477994575</v>
+      </c>
+      <c r="Q26">
+        <v>9.217259903659111</v>
+      </c>
+      <c r="R26">
+        <v>82.955339132932</v>
+      </c>
+      <c r="S26">
+        <v>0.008827017898225358</v>
+      </c>
+      <c r="T26">
+        <v>0.00882701789822536</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>2.535724333333333</v>
+      </c>
+      <c r="H27">
+        <v>7.607173</v>
+      </c>
+      <c r="I27">
+        <v>0.1428506938109988</v>
+      </c>
+      <c r="J27">
+        <v>0.1428506938109988</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>37.49596466666667</v>
+      </c>
+      <c r="N27">
+        <v>112.487894</v>
+      </c>
+      <c r="O27">
+        <v>0.6374063547877785</v>
+      </c>
+      <c r="P27">
+        <v>0.6374063547877786</v>
+      </c>
+      <c r="Q27">
+        <v>95.07943000707355</v>
+      </c>
+      <c r="R27">
+        <v>855.714870063662</v>
+      </c>
+      <c r="S27">
+        <v>0.09105394002097379</v>
+      </c>
+      <c r="T27">
+        <v>0.09105394002097382</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>2.535724333333333</v>
+      </c>
+      <c r="H28">
+        <v>7.607173</v>
+      </c>
+      <c r="I28">
+        <v>0.1428506938109988</v>
+      </c>
+      <c r="J28">
+        <v>0.1428506938109988</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M28">
+        <v>0.1977943333333333</v>
+      </c>
+      <c r="N28">
+        <v>0.593383</v>
+      </c>
+      <c r="O28">
+        <v>0.003362371554605123</v>
+      </c>
+      <c r="P28">
+        <v>0.003362371554605124</v>
+      </c>
+      <c r="Q28">
+        <v>0.5015519040287777</v>
+      </c>
+      <c r="R28">
+        <v>4.513967136259</v>
+      </c>
+      <c r="S28">
+        <v>0.0004803171094257084</v>
+      </c>
+      <c r="T28">
+        <v>0.0004803171094257085</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>2.535724333333333</v>
+      </c>
+      <c r="H29">
+        <v>7.607173</v>
+      </c>
+      <c r="I29">
+        <v>0.1428506938109988</v>
+      </c>
+      <c r="J29">
+        <v>0.1428506938109988</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M29">
+        <v>0.5123639999999999</v>
+      </c>
+      <c r="N29">
+        <v>1.537092</v>
+      </c>
+      <c r="O29">
+        <v>0.00870984577854623</v>
+      </c>
+      <c r="P29">
+        <v>0.008709845778546233</v>
+      </c>
+      <c r="Q29">
+        <v>1.299213862324</v>
+      </c>
+      <c r="R29">
+        <v>11.692924760916</v>
+      </c>
+      <c r="S29">
+        <v>0.001244207512452128</v>
+      </c>
+      <c r="T29">
+        <v>0.001244207512452128</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>2.535724333333333</v>
+      </c>
+      <c r="H30">
+        <v>7.607173</v>
+      </c>
+      <c r="I30">
+        <v>0.1428506938109988</v>
+      </c>
+      <c r="J30">
+        <v>0.1428506938109988</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>3.737712</v>
+      </c>
+      <c r="N30">
+        <v>11.213136</v>
+      </c>
+      <c r="O30">
+        <v>0.06353860748339382</v>
+      </c>
+      <c r="P30">
+        <v>0.06353860748339384</v>
+      </c>
+      <c r="Q30">
+        <v>9.477807269391999</v>
+      </c>
+      <c r="R30">
+        <v>85.30026542452798</v>
+      </c>
+      <c r="S30">
+        <v>0.009076534162787525</v>
+      </c>
+      <c r="T30">
+        <v>0.009076534162787527</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>2.535724333333333</v>
+      </c>
+      <c r="H31">
+        <v>7.607173</v>
+      </c>
+      <c r="I31">
+        <v>0.1428506938109988</v>
+      </c>
+      <c r="J31">
+        <v>0.1428506938109988</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>13.24704433333333</v>
+      </c>
+      <c r="N31">
+        <v>39.741133</v>
+      </c>
+      <c r="O31">
+        <v>0.2251909056157304</v>
+      </c>
+      <c r="P31">
+        <v>0.2251909056157305</v>
+      </c>
+      <c r="Q31">
+        <v>33.59085266077877</v>
+      </c>
+      <c r="R31">
+        <v>302.317673947009</v>
+      </c>
+      <c r="S31">
+        <v>0.03216867710713423</v>
+      </c>
+      <c r="T31">
+        <v>0.03216867710713424</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>2.483883666666667</v>
+      </c>
+      <c r="H32">
+        <v>7.451651</v>
+      </c>
+      <c r="I32">
+        <v>0.1399302362898047</v>
+      </c>
+      <c r="J32">
+        <v>0.1399302362898047</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>3.634961333333333</v>
+      </c>
+      <c r="N32">
+        <v>10.904884</v>
+      </c>
+      <c r="O32">
+        <v>0.06179191477994574</v>
+      </c>
+      <c r="P32">
+        <v>0.06179191477994575</v>
+      </c>
+      <c r="Q32">
+        <v>9.028821084831556</v>
+      </c>
+      <c r="R32">
+        <v>81.25938976348401</v>
+      </c>
+      <c r="S32">
+        <v>0.008646557235957286</v>
+      </c>
+      <c r="T32">
+        <v>0.008646557235957288</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>2.483883666666667</v>
+      </c>
+      <c r="H33">
+        <v>7.451651</v>
+      </c>
+      <c r="I33">
+        <v>0.1399302362898047</v>
+      </c>
+      <c r="J33">
+        <v>0.1399302362898047</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>37.49596466666667</v>
+      </c>
+      <c r="N33">
+        <v>112.487894</v>
+      </c>
+      <c r="O33">
+        <v>0.6374063547877785</v>
+      </c>
+      <c r="P33">
+        <v>0.6374063547877786</v>
+      </c>
+      <c r="Q33">
+        <v>93.1356142014438</v>
+      </c>
+      <c r="R33">
+        <v>838.2205278129941</v>
+      </c>
+      <c r="S33">
+        <v>0.08919242183807696</v>
+      </c>
+      <c r="T33">
+        <v>0.08919242183807698</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>2.483883666666667</v>
+      </c>
+      <c r="H34">
+        <v>7.451651</v>
+      </c>
+      <c r="I34">
+        <v>0.1399302362898047</v>
+      </c>
+      <c r="J34">
+        <v>0.1399302362898047</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M34">
+        <v>0.1977943333333333</v>
+      </c>
+      <c r="N34">
+        <v>0.593383</v>
+      </c>
+      <c r="O34">
+        <v>0.003362371554605123</v>
+      </c>
+      <c r="P34">
+        <v>0.003362371554605124</v>
+      </c>
+      <c r="Q34">
+        <v>0.4912981139258889</v>
+      </c>
+      <c r="R34">
+        <v>4.421683025333</v>
+      </c>
+      <c r="S34">
+        <v>0.000470497446130013</v>
+      </c>
+      <c r="T34">
+        <v>0.0004704974461300131</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>2.483883666666667</v>
+      </c>
+      <c r="H35">
+        <v>7.451651</v>
+      </c>
+      <c r="I35">
+        <v>0.1399302362898047</v>
+      </c>
+      <c r="J35">
+        <v>0.1399302362898047</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M35">
+        <v>0.5123639999999999</v>
+      </c>
+      <c r="N35">
+        <v>1.537092</v>
+      </c>
+      <c r="O35">
+        <v>0.00870984577854623</v>
+      </c>
+      <c r="P35">
+        <v>0.008709845778546233</v>
+      </c>
+      <c r="Q35">
+        <v>1.272652570988</v>
+      </c>
+      <c r="R35">
+        <v>11.453873138892</v>
+      </c>
+      <c r="S35">
+        <v>0.001218770777839732</v>
+      </c>
+      <c r="T35">
+        <v>0.001218770777839733</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>2.483883666666667</v>
+      </c>
+      <c r="H36">
+        <v>7.451651</v>
+      </c>
+      <c r="I36">
+        <v>0.1399302362898047</v>
+      </c>
+      <c r="J36">
+        <v>0.1399302362898047</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>3.737712</v>
+      </c>
+      <c r="N36">
+        <v>11.213136</v>
+      </c>
+      <c r="O36">
+        <v>0.06353860748339382</v>
+      </c>
+      <c r="P36">
+        <v>0.06353860748339384</v>
+      </c>
+      <c r="Q36">
+        <v>9.284041787504</v>
+      </c>
+      <c r="R36">
+        <v>83.55637608753599</v>
+      </c>
+      <c r="S36">
+        <v>0.008890972358676454</v>
+      </c>
+      <c r="T36">
+        <v>0.008890972358676455</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>2.483883666666667</v>
+      </c>
+      <c r="H37">
+        <v>7.451651</v>
+      </c>
+      <c r="I37">
+        <v>0.1399302362898047</v>
+      </c>
+      <c r="J37">
+        <v>0.1399302362898047</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>13.24704433333333</v>
+      </c>
+      <c r="N37">
+        <v>39.741133</v>
+      </c>
+      <c r="O37">
+        <v>0.2251909056157304</v>
+      </c>
+      <c r="P37">
+        <v>0.2251909056157305</v>
+      </c>
+      <c r="Q37">
+        <v>32.90411705117589</v>
+      </c>
+      <c r="R37">
+        <v>296.137053460583</v>
+      </c>
+      <c r="S37">
+        <v>0.03151101663312428</v>
+      </c>
+      <c r="T37">
+        <v>0.03151101663312428</v>
       </c>
     </row>
   </sheetData>
